--- a/csm/excel/templated brand.xlsx
+++ b/csm/excel/templated brand.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="BRAND" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>NO</t>
   </si>
@@ -33,29 +32,143 @@
     <t>1</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>HONDA</t>
   </si>
   <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>ISUZU</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>MERCEDES BENZ</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>PROTON</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>อื่นๆ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,13 +212,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,53 +540,3558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527"/>
+      <c r="B527"/>
+      <c r="C527"/>
+      <c r="D527"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528"/>
+      <c r="B528"/>
+      <c r="C528"/>
+      <c r="D528"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529"/>
+      <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530"/>
+      <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531"/>
+      <c r="B531"/>
+      <c r="C531"/>
+      <c r="D531"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532"/>
+      <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533"/>
+      <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534"/>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535"/>
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536"/>
+      <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537"/>
+      <c r="B537"/>
+      <c r="C537"/>
+      <c r="D537"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538"/>
+      <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539"/>
+      <c r="B539"/>
+      <c r="C539"/>
+      <c r="D539"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540"/>
+      <c r="B540"/>
+      <c r="C540"/>
+      <c r="D540"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541"/>
+      <c r="B541"/>
+      <c r="C541"/>
+      <c r="D541"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542"/>
+      <c r="B542"/>
+      <c r="C542"/>
+      <c r="D542"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543"/>
+      <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544"/>
+      <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545"/>
+      <c r="B545"/>
+      <c r="C545"/>
+      <c r="D545"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546"/>
+      <c r="B546"/>
+      <c r="C546"/>
+      <c r="D546"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547"/>
+      <c r="B547"/>
+      <c r="C547"/>
+      <c r="D547"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548"/>
+      <c r="B548"/>
+      <c r="C548"/>
+      <c r="D548"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549"/>
+      <c r="B549"/>
+      <c r="C549"/>
+      <c r="D549"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550"/>
+      <c r="B550"/>
+      <c r="C550"/>
+      <c r="D550"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551"/>
+      <c r="B551"/>
+      <c r="C551"/>
+      <c r="D551"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552"/>
+      <c r="B552"/>
+      <c r="C552"/>
+      <c r="D552"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553"/>
+      <c r="B553"/>
+      <c r="C553"/>
+      <c r="D553"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554"/>
+      <c r="B554"/>
+      <c r="C554"/>
+      <c r="D554"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555"/>
+      <c r="B555"/>
+      <c r="C555"/>
+      <c r="D555"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556"/>
+      <c r="B556"/>
+      <c r="C556"/>
+      <c r="D556"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557"/>
+      <c r="B557"/>
+      <c r="C557"/>
+      <c r="D557"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558"/>
+      <c r="B558"/>
+      <c r="C558"/>
+      <c r="D558"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559"/>
+      <c r="B559"/>
+      <c r="C559"/>
+      <c r="D559"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560"/>
+      <c r="B560"/>
+      <c r="C560"/>
+      <c r="D560"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561"/>
+      <c r="B561"/>
+      <c r="C561"/>
+      <c r="D561"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562"/>
+      <c r="B562"/>
+      <c r="C562"/>
+      <c r="D562"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563"/>
+      <c r="B563"/>
+      <c r="C563"/>
+      <c r="D563"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564"/>
+      <c r="B564"/>
+      <c r="C564"/>
+      <c r="D564"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565"/>
+      <c r="B565"/>
+      <c r="C565"/>
+      <c r="D565"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566"/>
+      <c r="B566"/>
+      <c r="C566"/>
+      <c r="D566"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567"/>
+      <c r="B567"/>
+      <c r="C567"/>
+      <c r="D567"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568"/>
+      <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569"/>
+      <c r="B569"/>
+      <c r="C569"/>
+      <c r="D569"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570"/>
+      <c r="B570"/>
+      <c r="C570"/>
+      <c r="D570"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571"/>
+      <c r="B571"/>
+      <c r="C571"/>
+      <c r="D571"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572"/>
+      <c r="B572"/>
+      <c r="C572"/>
+      <c r="D572"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573"/>
+      <c r="B573"/>
+      <c r="C573"/>
+      <c r="D573"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574"/>
+      <c r="B574"/>
+      <c r="C574"/>
+      <c r="D574"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575"/>
+      <c r="B575"/>
+      <c r="C575"/>
+      <c r="D575"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576"/>
+      <c r="B576"/>
+      <c r="C576"/>
+      <c r="D576"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577"/>
+      <c r="B577"/>
+      <c r="C577"/>
+      <c r="D577"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578"/>
+      <c r="B578"/>
+      <c r="C578"/>
+      <c r="D578"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579"/>
+      <c r="B579"/>
+      <c r="C579"/>
+      <c r="D579"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580"/>
+      <c r="B580"/>
+      <c r="C580"/>
+      <c r="D580"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581"/>
+      <c r="B581"/>
+      <c r="C581"/>
+      <c r="D581"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582"/>
+      <c r="B582"/>
+      <c r="C582"/>
+      <c r="D582"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583"/>
+      <c r="B583"/>
+      <c r="C583"/>
+      <c r="D583"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584"/>
+      <c r="B584"/>
+      <c r="C584"/>
+      <c r="D584"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585"/>
+      <c r="B585"/>
+      <c r="C585"/>
+      <c r="D585"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586"/>
+      <c r="B586"/>
+      <c r="C586"/>
+      <c r="D586"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587"/>
+      <c r="B587"/>
+      <c r="C587"/>
+      <c r="D587"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588"/>
+      <c r="B588"/>
+      <c r="C588"/>
+      <c r="D588"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589"/>
+      <c r="B589"/>
+      <c r="C589"/>
+      <c r="D589"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590"/>
+      <c r="B590"/>
+      <c r="C590"/>
+      <c r="D590"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591"/>
+      <c r="B591"/>
+      <c r="C591"/>
+      <c r="D591"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592"/>
+      <c r="B592"/>
+      <c r="C592"/>
+      <c r="D592"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593"/>
+      <c r="B593"/>
+      <c r="C593"/>
+      <c r="D593"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594"/>
+      <c r="B594"/>
+      <c r="C594"/>
+      <c r="D594"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595"/>
+      <c r="B595"/>
+      <c r="C595"/>
+      <c r="D595"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596"/>
+      <c r="B596"/>
+      <c r="C596"/>
+      <c r="D596"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597"/>
+      <c r="B597"/>
+      <c r="C597"/>
+      <c r="D597"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598"/>
+      <c r="B598"/>
+      <c r="C598"/>
+      <c r="D598"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599"/>
+      <c r="B599"/>
+      <c r="C599"/>
+      <c r="D599"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600"/>
+      <c r="B600"/>
+      <c r="C600"/>
+      <c r="D600"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601"/>
+      <c r="B601"/>
+      <c r="C601"/>
+      <c r="D601"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602"/>
+      <c r="B602"/>
+      <c r="C602"/>
+      <c r="D602"/>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603"/>
+      <c r="B603"/>
+      <c r="C603"/>
+      <c r="D603"/>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604"/>
+      <c r="B604"/>
+      <c r="C604"/>
+      <c r="D604"/>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605"/>
+      <c r="B605"/>
+      <c r="C605"/>
+      <c r="D605"/>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606"/>
+      <c r="B606"/>
+      <c r="C606"/>
+      <c r="D606"/>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607"/>
+      <c r="B607"/>
+      <c r="C607"/>
+      <c r="D607"/>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608"/>
+      <c r="B608"/>
+      <c r="C608"/>
+      <c r="D608"/>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609"/>
+      <c r="B609"/>
+      <c r="C609"/>
+      <c r="D609"/>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610"/>
+      <c r="B610"/>
+      <c r="C610"/>
+      <c r="D610"/>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611"/>
+      <c r="B611"/>
+      <c r="C611"/>
+      <c r="D611"/>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612"/>
+      <c r="B612"/>
+      <c r="C612"/>
+      <c r="D612"/>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613"/>
+      <c r="B613"/>
+      <c r="C613"/>
+      <c r="D613"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614"/>
+      <c r="B614"/>
+      <c r="C614"/>
+      <c r="D614"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615"/>
+      <c r="B615"/>
+      <c r="C615"/>
+      <c r="D615"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616"/>
+      <c r="B616"/>
+      <c r="C616"/>
+      <c r="D616"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617"/>
+      <c r="B617"/>
+      <c r="C617"/>
+      <c r="D617"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618"/>
+      <c r="B618"/>
+      <c r="C618"/>
+      <c r="D618"/>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619"/>
+      <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620"/>
+      <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621"/>
+      <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622"/>
+      <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623"/>
+      <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624"/>
+      <c r="B624"/>
+      <c r="C624"/>
+      <c r="D624"/>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625"/>
+      <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626"/>
+      <c r="B626"/>
+      <c r="C626"/>
+      <c r="D626"/>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627"/>
+      <c r="B627"/>
+      <c r="C627"/>
+      <c r="D627"/>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628"/>
+      <c r="B628"/>
+      <c r="C628"/>
+      <c r="D628"/>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629"/>
+      <c r="B629"/>
+      <c r="C629"/>
+      <c r="D629"/>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630"/>
+      <c r="B630"/>
+      <c r="C630"/>
+      <c r="D630"/>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631"/>
+      <c r="B631"/>
+      <c r="C631"/>
+      <c r="D631"/>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632"/>
+      <c r="B632"/>
+      <c r="C632"/>
+      <c r="D632"/>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633"/>
+      <c r="B633"/>
+      <c r="C633"/>
+      <c r="D633"/>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634"/>
+      <c r="B634"/>
+      <c r="C634"/>
+      <c r="D634"/>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635"/>
+      <c r="B635"/>
+      <c r="C635"/>
+      <c r="D635"/>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636"/>
+      <c r="B636"/>
+      <c r="C636"/>
+      <c r="D636"/>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637"/>
+      <c r="B637"/>
+      <c r="C637"/>
+      <c r="D637"/>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638"/>
+      <c r="B638"/>
+      <c r="C638"/>
+      <c r="D638"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639"/>
+      <c r="B639"/>
+      <c r="C639"/>
+      <c r="D639"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640"/>
+      <c r="B640"/>
+      <c r="C640"/>
+      <c r="D640"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641"/>
+      <c r="B641"/>
+      <c r="C641"/>
+      <c r="D641"/>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642"/>
+      <c r="B642"/>
+      <c r="C642"/>
+      <c r="D642"/>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643"/>
+      <c r="B643"/>
+      <c r="C643"/>
+      <c r="D643"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644"/>
+      <c r="B644"/>
+      <c r="C644"/>
+      <c r="D644"/>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645"/>
+      <c r="B645"/>
+      <c r="C645"/>
+      <c r="D645"/>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646"/>
+      <c r="B646"/>
+      <c r="C646"/>
+      <c r="D646"/>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647"/>
+      <c r="B647"/>
+      <c r="C647"/>
+      <c r="D647"/>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648"/>
+      <c r="B648"/>
+      <c r="C648"/>
+      <c r="D648"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649"/>
+      <c r="B649"/>
+      <c r="C649"/>
+      <c r="D649"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650"/>
+      <c r="B650"/>
+      <c r="C650"/>
+      <c r="D650"/>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651"/>
+      <c r="B651"/>
+      <c r="C651"/>
+      <c r="D651"/>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652"/>
+      <c r="B652"/>
+      <c r="C652"/>
+      <c r="D652"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653"/>
+      <c r="B653"/>
+      <c r="C653"/>
+      <c r="D653"/>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654"/>
+      <c r="B654"/>
+      <c r="C654"/>
+      <c r="D654"/>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655"/>
+      <c r="B655"/>
+      <c r="C655"/>
+      <c r="D655"/>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656"/>
+      <c r="B656"/>
+      <c r="C656"/>
+      <c r="D656"/>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657"/>
+      <c r="B657"/>
+      <c r="C657"/>
+      <c r="D657"/>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658"/>
+      <c r="B658"/>
+      <c r="C658"/>
+      <c r="D658"/>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659"/>
+      <c r="B659"/>
+      <c r="C659"/>
+      <c r="D659"/>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660"/>
+      <c r="B660"/>
+      <c r="C660"/>
+      <c r="D660"/>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661"/>
+      <c r="B661"/>
+      <c r="C661"/>
+      <c r="D661"/>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662"/>
+      <c r="B662"/>
+      <c r="C662"/>
+      <c r="D662"/>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663"/>
+      <c r="B663"/>
+      <c r="C663"/>
+      <c r="D663"/>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664"/>
+      <c r="B664"/>
+      <c r="C664"/>
+      <c r="D664"/>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665"/>
+      <c r="B665"/>
+      <c r="C665"/>
+      <c r="D665"/>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666"/>
+      <c r="B666"/>
+      <c r="C666"/>
+      <c r="D666"/>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667"/>
+      <c r="B667"/>
+      <c r="C667"/>
+      <c r="D667"/>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668"/>
+      <c r="B668"/>
+      <c r="C668"/>
+      <c r="D668"/>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669"/>
+      <c r="B669"/>
+      <c r="C669"/>
+      <c r="D669"/>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670"/>
+      <c r="B670"/>
+      <c r="C670"/>
+      <c r="D670"/>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671"/>
+      <c r="B671"/>
+      <c r="C671"/>
+      <c r="D671"/>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672"/>
+      <c r="B672"/>
+      <c r="C672"/>
+      <c r="D672"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,16 +4107,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>